--- a/Server_Tools/dayz_xy_mapper/dAyZ XY mapper_LIVONIA.xlsx
+++ b/Server_Tools/dayz_xy_mapper/dAyZ XY mapper_LIVONIA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\dayz_xy_mapper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub\DayZ-Modwork\Server_Tools\dayz_xy_mapper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295C7ED9-3ED3-45AC-9A53-CADF4D26748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7939FE-478E-40E8-80A8-43E038C1D660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{49736856-2605-4B12-9DAB-AC07616EC5DD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>X</t>
   </si>
@@ -41,19 +41,10 @@
     <t>Z</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>xyza</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>INTENTIONALLY BLANK</t>
   </si>
   <si>
     <r>
@@ -191,6 +182,33 @@
   </si>
   <si>
     <t>for LIVONIA</t>
+  </si>
+  <si>
+    <t>A/R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;zone name="Graze" smin="0" smax="0" dmin="0" dmax="0" x="6453.33" z="5908.53" r="250"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;zone name="Graze" smin="0" smax="0" dmin="0" dmax="0" x="5939.34" z="5561.3" r="200"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;zone name="Rest" smin="0" smax="0" dmin="0" dmax="0" x="5304.74" z="5783.71" r="150"/&gt;</t>
+  </si>
+  <si>
+    <t>2536 9.66 7064.63</t>
+  </si>
+  <si>
+    <t>7166.36 25.3 8000.6</t>
+  </si>
+  <si>
+    <t>Zero Zero</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Style Detected</t>
   </si>
 </sst>
 </file>
@@ -448,7 +466,7 @@
           <bgColor theme="0" tint="-0.89999084444715716"/>
         </patternFill>
       </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -493,13 +511,14 @@
         <family val="3"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="0" tint="-0.89999084444715716"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -809,6 +828,24 @@
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>6453.33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5939.34</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5304.74</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2536</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7166.36</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -861,6 +898,24 @@
                   <c:v>12800</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5908.53</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5561.3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5783.71</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7064.63</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8000.6</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1729,28 +1784,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}" name="Table2" displayName="Table2" ref="A3:G18" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="A3:G18" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}" name="Table2" displayName="Table2" ref="A3:G24" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A3:G24" xr:uid="{F3B6C3E9-FCED-45EB-B4B6-C833C94DE562}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G45">
     <sortCondition ref="D3:D45"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EF034E6B-A9C0-4AA8-8204-10DB0B268AD2}" name="xyza" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{155A6623-2665-4DA8-A635-4249EA0DC427}" name="INTENTIONALLY BLANK" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{9266FBCB-0860-4CCD-B69D-027E09264BA2}" name="Style" dataDxfId="4">
-      <calculatedColumnFormula>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{155A6623-2665-4DA8-A635-4249EA0DC427}" name="C" dataDxfId="4">
+      <calculatedColumnFormula>IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{EEECD92E-F410-4D90-9D3A-84FECE72F9D0}" name="X" dataDxfId="3">
-      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{9266FBCB-0860-4CCD-B69D-027E09264BA2}" name="Style Detected" dataDxfId="3">
+      <calculatedColumnFormula>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{DAE701B4-8F7E-4555-90C8-468A5391EB98}" name="Y" dataDxfId="2">
-      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</calculatedColumnFormula>
+    <tableColumn id="2" xr3:uid="{EEECD92E-F410-4D90-9D3A-84FECE72F9D0}" name="X" dataDxfId="2">
+      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{57E00DBB-3350-4FB4-8EAD-A22397C2EAB6}" name="Z" dataDxfId="1">
-      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{DAE701B4-8F7E-4555-90C8-468A5391EB98}" name="Y" dataDxfId="1">
+      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{C92BEB41-F42A-442B-9A87-122C6F0F559C}" name="A" dataDxfId="0">
-      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{57E00DBB-3350-4FB4-8EAD-A22397C2EAB6}" name="Z" dataDxfId="0">
+      <calculatedColumnFormula>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{C92BEB41-F42A-442B-9A87-122C6F0F559C}" name="A/R" dataDxfId="5">
+      <calculatedColumnFormula>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -2092,15 +2149,15 @@
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -2109,10 +2166,10 @@
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="11" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
@@ -2120,459 +2177,653 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="7" t="str">
+        <f t="shared" ref="B4:B24" si="0">IF(ISNUMBER(_xlfn.NUMBERVALUE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(A4," ",""),".",""),",","Z"))),"++","")</f>
+        <v/>
       </c>
       <c r="C4" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D4" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7500</v>
       </c>
       <c r="E4" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F4" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6156</v>
       </c>
       <c r="G4" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C5" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D5" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7347</v>
       </c>
       <c r="E5" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F5" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6410</v>
       </c>
       <c r="G5" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C6" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D6" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7791</v>
       </c>
       <c r="E6" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F6" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>6038</v>
       </c>
       <c r="G6" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C7" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D7" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7884</v>
       </c>
       <c r="E7" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F7" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>5912</v>
       </c>
       <c r="G7" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C8" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D8" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7651</v>
       </c>
       <c r="E8" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F8" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>5934</v>
       </c>
       <c r="G8" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C9" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D9" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7798</v>
       </c>
       <c r="E9" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F9" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>5803</v>
       </c>
       <c r="G9" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C10" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D10" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>4343</v>
       </c>
       <c r="E10" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F10" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10467</v>
       </c>
       <c r="G10" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C11" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D11" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>4064</v>
       </c>
       <c r="E11" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F11" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10224</v>
       </c>
       <c r="G11" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C12" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D12" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>3787</v>
       </c>
       <c r="E12" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>10334</v>
       </c>
       <c r="G12" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C13" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
       <c r="D13" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>9994.6890000000003</v>
       </c>
       <c r="E13" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>174.6216</v>
       </c>
       <c r="F13" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11443.960999999999</v>
       </c>
       <c r="G13" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="B14" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C14" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
       <c r="D14" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>7468.93</v>
       </c>
       <c r="E14" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>174.667</v>
       </c>
       <c r="F14" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>11504.266</v>
       </c>
       <c r="G14" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C15" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
       <c r="D15" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>10905.791999999999</v>
       </c>
       <c r="E15" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>183.6</v>
       </c>
       <c r="F15" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>9461.0939999999991</v>
       </c>
       <c r="G15" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C16" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>XML</v>
       </c>
       <c r="D16" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>4250.0550000000003</v>
       </c>
       <c r="E16" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>182.05199999999999</v>
       </c>
       <c r="F16" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>8563.7639999999992</v>
       </c>
       <c r="G16" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C17" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D17" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>12800</v>
       </c>
       <c r="E17" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>1</v>
       </c>
       <c r="F17" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>12800</v>
       </c>
       <c r="G17" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
       </c>
       <c r="C18" s="7" t="str">
-        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("pos",Table2[[#This Row],[xyza]])&gt;0,"XML",""),"JSON"))</f>
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
         <v>JSON</v>
       </c>
       <c r="D18" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"x="""),""""),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],","))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
         <v>0</v>
       </c>
       <c r="E18" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"y="""),""""),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", "))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
         <v>1</v>
       </c>
       <c r="F18" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"z="""),""""),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2))),0)</f>
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
         <v>0</v>
       </c>
       <c r="G18" s="9">
-        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],"a="""),""""),"")),0)</f>
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="A19" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C19" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>XML</v>
+      </c>
+      <c r="D19" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>6453.33</v>
+      </c>
+      <c r="E19" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>5908.53</v>
+      </c>
+      <c r="G19" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>250</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C20" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>XML</v>
+      </c>
+      <c r="D20" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>5939.34</v>
+      </c>
+      <c r="E20" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>5561.3</v>
+      </c>
+      <c r="G20" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>XML</v>
+      </c>
+      <c r="D21" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>5304.74</v>
+      </c>
+      <c r="E21" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>5783.71</v>
+      </c>
+      <c r="G21" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="A22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>++</v>
+      </c>
+      <c r="C22" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>C/MAP</v>
+      </c>
+      <c r="D22" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>2536</v>
+      </c>
+      <c r="E22" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>7064.63</v>
+      </c>
+      <c r="G22" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>++</v>
+      </c>
+      <c r="C23" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>C/MAP</v>
+      </c>
+      <c r="D23" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>7166.36</v>
+      </c>
+      <c r="E23" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>8000.6</v>
+      </c>
+      <c r="G23" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="12" t="str">
+        <f>IF(Table2[[#This Row],[xyza]]="","",IFERROR(IF(SEARCH("x=",Table2[[#This Row],[xyza]])&gt;0,"XML",""),IFERROR(IF(SEARCH(",",Table2[[#This Row],[xyza]])&gt;0,"JSON",""),IFERROR(IF(SEARCH("++",Table2[[#This Row],[C]])&gt;0,"C/MAP",""),"other"))))</f>
+        <v>other</v>
+      </c>
+      <c r="D24" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," x="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," y="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," "),_xlfn.TEXTAFTER(_xlfn.TEXTBEFORE(Table2[[#This Row],[xyza]],",",2),", ")))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <f>IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," z="""),""""),IF(Table2[[#This Row],[Style Detected]]="C/MAP",_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," ",2),_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]],",",2)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <f>IFERROR(IFERROR(_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," a="""),""""),"")),_xlfn.NUMBERVALUE(IF(Table2[[#This Row],[Style Detected]]="XML",_xlfn.TEXTBEFORE(_xlfn.TEXTAFTER(Table2[[#This Row],[xyza]]," r="""),""""),""))),0)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C25" s="12"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C26" s="12"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D28" s="9"/>
